--- a/extendedMauricioAnalysis.xlsx
+++ b/extendedMauricioAnalysis.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Documents\GitHub\Modeling-Disease-with-Twitter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9968" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
     <sheet name="workspace" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -826,6 +831,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -863,154 +888,154 @@
             <c:numRef>
               <c:f>workspace!$B$2:$B$50</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>41650.0</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41657.0</c:v>
+                  <c:v>41657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41664.0</c:v>
+                  <c:v>41664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41678.0</c:v>
+                  <c:v>41678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41685.0</c:v>
+                  <c:v>41685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41692.0</c:v>
+                  <c:v>41692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41706.0</c:v>
+                  <c:v>41706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41713.0</c:v>
+                  <c:v>41713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41720.0</c:v>
+                  <c:v>41720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41727.0</c:v>
+                  <c:v>41727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41734.0</c:v>
+                  <c:v>41734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41741.0</c:v>
+                  <c:v>41741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41748.0</c:v>
+                  <c:v>41748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41755.0</c:v>
+                  <c:v>41755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41762.0</c:v>
+                  <c:v>41762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41769.0</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41776.0</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41783.0</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41790.0</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41797.0</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41804.0</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41811.0</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41818.0</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41825.0</c:v>
+                  <c:v>41825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41832.0</c:v>
+                  <c:v>41832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41839.0</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41846.0</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41853.0</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41860.0</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41867.0</c:v>
+                  <c:v>41867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41874.0</c:v>
+                  <c:v>41874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41881.0</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41888.0</c:v>
+                  <c:v>41888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41895.0</c:v>
+                  <c:v>41895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41902.0</c:v>
+                  <c:v>41902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41909.0</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41916.0</c:v>
+                  <c:v>41916</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41923.0</c:v>
+                  <c:v>41923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41930.0</c:v>
+                  <c:v>41930</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41937.0</c:v>
+                  <c:v>41937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41951.0</c:v>
+                  <c:v>41951</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41972.0</c:v>
+                  <c:v>41972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41993.0</c:v>
+                  <c:v>41993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42007.0</c:v>
+                  <c:v>42007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42008.0</c:v>
+                  <c:v>42008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,151 +1047,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>194.0</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,154 +1228,154 @@
             <c:numRef>
               <c:f>workspace!$B$2:$B$50</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>41650.0</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41657.0</c:v>
+                  <c:v>41657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41664.0</c:v>
+                  <c:v>41664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41678.0</c:v>
+                  <c:v>41678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41685.0</c:v>
+                  <c:v>41685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41692.0</c:v>
+                  <c:v>41692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41706.0</c:v>
+                  <c:v>41706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41713.0</c:v>
+                  <c:v>41713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41720.0</c:v>
+                  <c:v>41720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41727.0</c:v>
+                  <c:v>41727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41734.0</c:v>
+                  <c:v>41734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41741.0</c:v>
+                  <c:v>41741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41748.0</c:v>
+                  <c:v>41748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41755.0</c:v>
+                  <c:v>41755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41762.0</c:v>
+                  <c:v>41762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41769.0</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41776.0</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41783.0</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41790.0</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41797.0</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41804.0</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41811.0</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41818.0</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41825.0</c:v>
+                  <c:v>41825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41832.0</c:v>
+                  <c:v>41832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41839.0</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41846.0</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41853.0</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41860.0</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41867.0</c:v>
+                  <c:v>41867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41874.0</c:v>
+                  <c:v>41874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41881.0</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41888.0</c:v>
+                  <c:v>41888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41895.0</c:v>
+                  <c:v>41895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41902.0</c:v>
+                  <c:v>41902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41909.0</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41916.0</c:v>
+                  <c:v>41916</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41923.0</c:v>
+                  <c:v>41923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41930.0</c:v>
+                  <c:v>41930</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41937.0</c:v>
+                  <c:v>41937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41951.0</c:v>
+                  <c:v>41951</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41972.0</c:v>
+                  <c:v>41972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41993.0</c:v>
+                  <c:v>41993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42007.0</c:v>
+                  <c:v>42007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42008.0</c:v>
+                  <c:v>42008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,151 +1387,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>119.0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>202.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>390.0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>563.0</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>953.0</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1174.0</c:v>
+                  <c:v>1174</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>356.0</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>762.0</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>530.0</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>906.0</c:v>
+                  <c:v>906</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1029.0</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>730.0</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2437.0</c:v>
+                  <c:v>2437</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1380.0</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1371.0</c:v>
+                  <c:v>1371</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1363.0</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1163.0</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1036.0</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3984.0</c:v>
+                  <c:v>3984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1679.0</c:v>
+                  <c:v>1679</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1661.0</c:v>
+                  <c:v>1661</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>239.0</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,154 +1568,154 @@
             <c:numRef>
               <c:f>workspace!$B$2:$B$50</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>41650.0</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41657.0</c:v>
+                  <c:v>41657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41664.0</c:v>
+                  <c:v>41664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41678.0</c:v>
+                  <c:v>41678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41685.0</c:v>
+                  <c:v>41685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41692.0</c:v>
+                  <c:v>41692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41706.0</c:v>
+                  <c:v>41706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41713.0</c:v>
+                  <c:v>41713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41720.0</c:v>
+                  <c:v>41720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41727.0</c:v>
+                  <c:v>41727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41734.0</c:v>
+                  <c:v>41734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41741.0</c:v>
+                  <c:v>41741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41748.0</c:v>
+                  <c:v>41748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41755.0</c:v>
+                  <c:v>41755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41762.0</c:v>
+                  <c:v>41762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41769.0</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41776.0</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41783.0</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41790.0</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41797.0</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41804.0</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41811.0</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41818.0</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41825.0</c:v>
+                  <c:v>41825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41832.0</c:v>
+                  <c:v>41832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41839.0</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41846.0</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41853.0</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41860.0</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41867.0</c:v>
+                  <c:v>41867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41874.0</c:v>
+                  <c:v>41874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41881.0</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41888.0</c:v>
+                  <c:v>41888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41895.0</c:v>
+                  <c:v>41895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41902.0</c:v>
+                  <c:v>41902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41909.0</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41916.0</c:v>
+                  <c:v>41916</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41923.0</c:v>
+                  <c:v>41923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41930.0</c:v>
+                  <c:v>41930</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41937.0</c:v>
+                  <c:v>41937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41951.0</c:v>
+                  <c:v>41951</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41972.0</c:v>
+                  <c:v>41972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41993.0</c:v>
+                  <c:v>41993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42007.0</c:v>
+                  <c:v>42007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42008.0</c:v>
+                  <c:v>42008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,151 +1727,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>171.0</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>304.0</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>303.0</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>214.0</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>204.0</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>225.0</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>367.0</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>137.0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>165.0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>165.0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>383.0</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>171.0</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>388.0</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>432.0</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,19 +1886,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553597608"/>
-        <c:axId val="605677192"/>
+        <c:axId val="718496352"/>
+        <c:axId val="718498312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553597608"/>
+        <c:axId val="718496352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy\ h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1910,14 +1934,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605677192"/>
+        <c:crossAx val="718498312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605677192"/>
+        <c:axId val="718498312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +1992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553597608"/>
+        <c:crossAx val="718496352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2104,6 +2128,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2141,154 +2185,154 @@
             <c:numRef>
               <c:f>workspace!$B$2:$B$50</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>41650.0</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41657.0</c:v>
+                  <c:v>41657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41664.0</c:v>
+                  <c:v>41664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41678.0</c:v>
+                  <c:v>41678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41685.0</c:v>
+                  <c:v>41685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41692.0</c:v>
+                  <c:v>41692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41706.0</c:v>
+                  <c:v>41706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41713.0</c:v>
+                  <c:v>41713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41720.0</c:v>
+                  <c:v>41720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41727.0</c:v>
+                  <c:v>41727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41734.0</c:v>
+                  <c:v>41734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41741.0</c:v>
+                  <c:v>41741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41748.0</c:v>
+                  <c:v>41748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41755.0</c:v>
+                  <c:v>41755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41762.0</c:v>
+                  <c:v>41762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41769.0</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41776.0</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41783.0</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41790.0</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41797.0</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41804.0</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41811.0</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41818.0</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41825.0</c:v>
+                  <c:v>41825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41832.0</c:v>
+                  <c:v>41832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41839.0</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41846.0</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41853.0</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41860.0</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41867.0</c:v>
+                  <c:v>41867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41874.0</c:v>
+                  <c:v>41874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41881.0</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41888.0</c:v>
+                  <c:v>41888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41895.0</c:v>
+                  <c:v>41895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41902.0</c:v>
+                  <c:v>41902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41909.0</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41916.0</c:v>
+                  <c:v>41916</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41923.0</c:v>
+                  <c:v>41923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41930.0</c:v>
+                  <c:v>41930</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41937.0</c:v>
+                  <c:v>41937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41951.0</c:v>
+                  <c:v>41951</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41972.0</c:v>
+                  <c:v>41972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41993.0</c:v>
+                  <c:v>41993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42007.0</c:v>
+                  <c:v>42007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42008.0</c:v>
+                  <c:v>42008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,151 +2344,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>215.0</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>264.0</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>303.0</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>354.0</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>406.0</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>488.0</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>574.0</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>674.0</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>786.0</c:v>
+                  <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>980.0</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1129.0</c:v>
+                  <c:v>1129</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1205.0</c:v>
+                  <c:v>1205</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1267.0</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1315.0</c:v>
+                  <c:v>1315</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1347.0</c:v>
+                  <c:v>1347</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1392.0</c:v>
+                  <c:v>1392</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1399.0</c:v>
+                  <c:v>1399</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1410.0</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1437.0</c:v>
+                  <c:v>1437</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1449.0</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,151 +2528,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>119.0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>301.0</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>503.0</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>643.0</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1033.0</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1596.0</c:v>
+                  <c:v>1596</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2549.0</c:v>
+                  <c:v>2549</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3723.0</c:v>
+                  <c:v>3723</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4079.0</c:v>
+                  <c:v>4079</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4841.0</c:v>
+                  <c:v>4841</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5371.0</c:v>
+                  <c:v>5371</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6277.0</c:v>
+                  <c:v>6277</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7306.0</c:v>
+                  <c:v>7306</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8036.0</c:v>
+                  <c:v>8036</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10473.0</c:v>
+                  <c:v>10473</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11853.0</c:v>
+                  <c:v>11853</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13224.0</c:v>
+                  <c:v>13224</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14587.0</c:v>
+                  <c:v>14587</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15750.0</c:v>
+                  <c:v>15750</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16786.0</c:v>
+                  <c:v>16786</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20770.0</c:v>
+                  <c:v>20770</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22449.0</c:v>
+                  <c:v>22449</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>24110.0</c:v>
+                  <c:v>24110</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24349.0</c:v>
+                  <c:v>24349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,151 +2712,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>182.0</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>215.0</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>215.0</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>386.0</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>690.0</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>993.0</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1207.0</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1411.0</c:v>
+                  <c:v>1411</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1636.0</c:v>
+                  <c:v>1636</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2003.0</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2140.0</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2305.0</c:v>
+                  <c:v>2305</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2470.0</c:v>
+                  <c:v>2470</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2591.0</c:v>
+                  <c:v>2591</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2974.0</c:v>
+                  <c:v>2974</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3145.0</c:v>
+                  <c:v>3145</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3242.0</c:v>
+                  <c:v>3242</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3287.0</c:v>
+                  <c:v>3287</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3675.0</c:v>
+                  <c:v>3675</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3732.0</c:v>
+                  <c:v>3732</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4164.0</c:v>
+                  <c:v>4164</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4239.0</c:v>
+                  <c:v>4239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,19 +2871,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605663704"/>
-        <c:axId val="605715112"/>
+        <c:axId val="718495568"/>
+        <c:axId val="718497528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605663704"/>
+        <c:axId val="718495568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy\ h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2876,14 +2919,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605715112"/>
+        <c:crossAx val="718497528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605715112"/>
+        <c:axId val="718497528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605663704"/>
+        <c:crossAx val="718495568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3059,7 +3102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3068,6 +3110,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3110,55 +3172,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.0</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3170,55 +3232,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>301.0</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>503.0</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>643.0</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1033.0</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1596.0</c:v>
+                  <c:v>1596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2549.0</c:v>
+                  <c:v>2549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3723.0</c:v>
+                  <c:v>3723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4079.0</c:v>
+                  <c:v>4079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4841.0</c:v>
+                  <c:v>4841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5371.0</c:v>
+                  <c:v>5371</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6277.0</c:v>
+                  <c:v>6277</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7306.0</c:v>
+                  <c:v>7306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8036.0</c:v>
+                  <c:v>8036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10473.0</c:v>
+                  <c:v>10473</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11853.0</c:v>
+                  <c:v>11853</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13224.0</c:v>
+                  <c:v>13224</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14587.0</c:v>
+                  <c:v>14587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,11 +3295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555074648"/>
-        <c:axId val="555054664"/>
+        <c:axId val="718499488"/>
+        <c:axId val="718495960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555074648"/>
+        <c:axId val="718499488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,12 +3356,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555054664"/>
+        <c:crossAx val="718495960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555054664"/>
+        <c:axId val="718495960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3356,7 +3418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555074648"/>
+        <c:crossAx val="718499488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3453,6 +3515,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3492,55 +3574,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.0</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,55 +3634,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>182.0</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215.0</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.0</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>386.0</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>690.0</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>993.0</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1207.0</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1411.0</c:v>
+                  <c:v>1411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1636.0</c:v>
+                  <c:v>1636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2003.0</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2140.0</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2305.0</c:v>
+                  <c:v>2305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2470.0</c:v>
+                  <c:v>2470</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2591.0</c:v>
+                  <c:v>2591</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2974.0</c:v>
+                  <c:v>2974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3145.0</c:v>
+                  <c:v>3145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3615,11 +3697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555038264"/>
-        <c:axId val="555032200"/>
+        <c:axId val="718501840"/>
+        <c:axId val="718497920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555038264"/>
+        <c:axId val="718501840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,12 +3758,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555032200"/>
+        <c:crossAx val="718497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555032200"/>
+        <c:axId val="718497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,7 +3820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555038264"/>
+        <c:crossAx val="718501840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3828,154 +3910,154 @@
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>41650.0</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41657.0</c:v>
+                  <c:v>41657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41664.0</c:v>
+                  <c:v>41664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41678.0</c:v>
+                  <c:v>41678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41685.0</c:v>
+                  <c:v>41685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41692.0</c:v>
+                  <c:v>41692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41706.0</c:v>
+                  <c:v>41706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41713.0</c:v>
+                  <c:v>41713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41720.0</c:v>
+                  <c:v>41720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41727.0</c:v>
+                  <c:v>41727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41734.0</c:v>
+                  <c:v>41734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41741.0</c:v>
+                  <c:v>41741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41748.0</c:v>
+                  <c:v>41748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41755.0</c:v>
+                  <c:v>41755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41762.0</c:v>
+                  <c:v>41762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41769.0</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41776.0</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41783.0</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41790.0</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41797.0</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41804.0</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41811.0</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41818.0</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41825.0</c:v>
+                  <c:v>41825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41832.0</c:v>
+                  <c:v>41832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41839.0</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41846.0</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41853.0</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41860.0</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41867.0</c:v>
+                  <c:v>41867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41874.0</c:v>
+                  <c:v>41874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41881.0</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41888.0</c:v>
+                  <c:v>41888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41895.0</c:v>
+                  <c:v>41895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41902.0</c:v>
+                  <c:v>41902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41909.0</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41916.0</c:v>
+                  <c:v>41916</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41923.0</c:v>
+                  <c:v>41923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41930.0</c:v>
+                  <c:v>41930</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41937.0</c:v>
+                  <c:v>41937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41951.0</c:v>
+                  <c:v>41951</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41972.0</c:v>
+                  <c:v>41972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41993.0</c:v>
+                  <c:v>41993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42007.0</c:v>
+                  <c:v>42007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42008.0</c:v>
+                  <c:v>42008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,151 +4069,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0154639175257732</c:v>
+                  <c:v>1.5463917525773196E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0103092783505155</c:v>
+                  <c:v>1.0309278350515464E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.077319587628866</c:v>
+                  <c:v>7.7319587628865982E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0257731958762887</c:v>
+                  <c:v>2.5773195876288658E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0103092783505155</c:v>
+                  <c:v>1.0309278350515464E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0309278350515464</c:v>
+                  <c:v>3.0927835051546393E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.056701030927835</c:v>
+                  <c:v>5.6701030927835051E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0360824742268041</c:v>
+                  <c:v>3.608247422680412E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.056701030927835</c:v>
+                  <c:v>5.6701030927835051E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.242268041237113</c:v>
+                  <c:v>0.2422680412371134</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.247422680412371</c:v>
+                  <c:v>0.24742268041237114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.283505154639175</c:v>
+                  <c:v>0.28350515463917525</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.252577319587629</c:v>
+                  <c:v>0.25257731958762886</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.201030927835052</c:v>
+                  <c:v>0.20103092783505155</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.262886597938144</c:v>
+                  <c:v>0.26288659793814434</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.268041237113402</c:v>
+                  <c:v>0.26804123711340205</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.422680412371134</c:v>
+                  <c:v>0.42268041237113402</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.443298969072165</c:v>
+                  <c:v>0.44329896907216493</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.515463917525773</c:v>
+                  <c:v>0.51546391752577314</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.577319587628866</c:v>
+                  <c:v>0.57731958762886593</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.768041237113402</c:v>
+                  <c:v>0.76804123711340211</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.391752577319588</c:v>
+                  <c:v>0.39175257731958762</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.319587628865979</c:v>
+                  <c:v>0.31958762886597936</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.247422680412371</c:v>
+                  <c:v>0.24742268041237114</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.164948453608247</c:v>
+                  <c:v>0.16494845360824742</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.231958762886598</c:v>
+                  <c:v>0.23195876288659795</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0360824742268041</c:v>
+                  <c:v>3.608247422680412E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.056701030927835</c:v>
+                  <c:v>5.6701030927835051E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.139175257731959</c:v>
+                  <c:v>0.13917525773195877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,154 +4241,154 @@
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>41650.0</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41657.0</c:v>
+                  <c:v>41657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41664.0</c:v>
+                  <c:v>41664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41678.0</c:v>
+                  <c:v>41678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41685.0</c:v>
+                  <c:v>41685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41692.0</c:v>
+                  <c:v>41692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41706.0</c:v>
+                  <c:v>41706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41713.0</c:v>
+                  <c:v>41713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41720.0</c:v>
+                  <c:v>41720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41727.0</c:v>
+                  <c:v>41727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41734.0</c:v>
+                  <c:v>41734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41741.0</c:v>
+                  <c:v>41741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41748.0</c:v>
+                  <c:v>41748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41755.0</c:v>
+                  <c:v>41755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41762.0</c:v>
+                  <c:v>41762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41769.0</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41776.0</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41783.0</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41790.0</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41797.0</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41804.0</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41811.0</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41818.0</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41825.0</c:v>
+                  <c:v>41825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41832.0</c:v>
+                  <c:v>41832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41839.0</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41846.0</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41853.0</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41860.0</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41867.0</c:v>
+                  <c:v>41867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41874.0</c:v>
+                  <c:v>41874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41881.0</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41888.0</c:v>
+                  <c:v>41888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41895.0</c:v>
+                  <c:v>41895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41902.0</c:v>
+                  <c:v>41902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41909.0</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41916.0</c:v>
+                  <c:v>41916</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41923.0</c:v>
+                  <c:v>41923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41930.0</c:v>
+                  <c:v>41930</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41937.0</c:v>
+                  <c:v>41937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41951.0</c:v>
+                  <c:v>41951</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41972.0</c:v>
+                  <c:v>41972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41993.0</c:v>
+                  <c:v>41993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42007.0</c:v>
+                  <c:v>42007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42008.0</c:v>
+                  <c:v>42008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4318,151 +4400,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0298694779116466</c:v>
+                  <c:v>2.9869477911646587E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0153112449799197</c:v>
+                  <c:v>1.5311244979919678E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0303714859437751</c:v>
+                  <c:v>3.03714859437751E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0507028112449799</c:v>
+                  <c:v>5.0702811244979919E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.035140562248996</c:v>
+                  <c:v>3.5140562248995984E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0978915662650602</c:v>
+                  <c:v>9.7891566265060237E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.141315261044177</c:v>
+                  <c:v>0.14131526104417672</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.239206827309237</c:v>
+                  <c:v>0.23920682730923695</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.294678714859438</c:v>
+                  <c:v>0.29467871485943775</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0893574297188755</c:v>
+                  <c:v>8.9357429718875503E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.191265060240964</c:v>
+                  <c:v>0.19126506024096385</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.133032128514056</c:v>
+                  <c:v>0.13303212851405621</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.227409638554217</c:v>
+                  <c:v>0.22740963855421686</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25828313253012</c:v>
+                  <c:v>0.25828313253012047</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.183232931726908</c:v>
+                  <c:v>0.18323293172690763</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.611696787148594</c:v>
+                  <c:v>0.61169678714859432</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.346385542168675</c:v>
+                  <c:v>0.34638554216867468</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.344126506024096</c:v>
+                  <c:v>0.34412650602409639</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.342118473895582</c:v>
+                  <c:v>0.34211847389558231</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.291917670682731</c:v>
+                  <c:v>0.29191767068273095</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.26004016064257</c:v>
+                  <c:v>0.26004016064257029</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.421435742971888</c:v>
+                  <c:v>0.42143574297188757</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.416917670682731</c:v>
+                  <c:v>0.41691767068273095</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0599899598393574</c:v>
+                  <c:v>5.9989959839357426E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4477,30 +4559,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552869048"/>
-        <c:axId val="552865960"/>
+        <c:axId val="718498704"/>
+        <c:axId val="718499096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="552869048"/>
+        <c:axId val="718498704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy\ h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552865960"/>
+        <c:crossAx val="718499096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="552865960"/>
+        <c:axId val="718499096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4511,14 +4592,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552869048"/>
+        <c:crossAx val="718498704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4527,7 +4607,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4568,7 +4648,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.400483814523185"/>
+                  <c:x val="0.40048381452318499"/>
                   <c:y val="-0.108518883056285"/>
                 </c:manualLayout>
               </c:layout>
@@ -4582,133 +4662,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0154639175257732</c:v>
+                  <c:v>1.5463917525773196E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0103092783505155</c:v>
+                  <c:v>1.0309278350515464E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.077319587628866</c:v>
+                  <c:v>7.7319587628865982E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0257731958762887</c:v>
+                  <c:v>2.5773195876288658E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0103092783505155</c:v>
+                  <c:v>1.0309278350515464E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0309278350515464</c:v>
+                  <c:v>3.0927835051546393E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.056701030927835</c:v>
+                  <c:v>5.6701030927835051E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0360824742268041</c:v>
+                  <c:v>3.608247422680412E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.056701030927835</c:v>
+                  <c:v>5.6701030927835051E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.242268041237113</c:v>
+                  <c:v>0.2422680412371134</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.247422680412371</c:v>
+                  <c:v>0.24742268041237114</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.283505154639175</c:v>
+                  <c:v>0.28350515463917525</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.252577319587629</c:v>
+                  <c:v>0.25257731958762886</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.201030927835052</c:v>
+                  <c:v>0.20103092783505155</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.262886597938144</c:v>
+                  <c:v>0.26288659793814434</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.268041237113402</c:v>
+                  <c:v>0.26804123711340205</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.422680412371134</c:v>
+                  <c:v>0.42268041237113402</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.443298969072165</c:v>
+                  <c:v>0.44329896907216493</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.515463917525773</c:v>
+                  <c:v>0.51546391752577314</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.577319587628866</c:v>
+                  <c:v>0.57731958762886593</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.768041237113402</c:v>
+                  <c:v>0.76804123711340211</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.391752577319588</c:v>
+                  <c:v>0.39175257731958762</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.319587628865979</c:v>
+                  <c:v>0.31958762886597936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4720,133 +4800,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0298694779116466</c:v>
+                  <c:v>2.9869477911646587E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0153112449799197</c:v>
+                  <c:v>1.5311244979919678E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0303714859437751</c:v>
+                  <c:v>3.03714859437751E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0507028112449799</c:v>
+                  <c:v>5.0702811244979919E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.035140562248996</c:v>
+                  <c:v>3.5140562248995984E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0978915662650602</c:v>
+                  <c:v>9.7891566265060237E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.141315261044177</c:v>
+                  <c:v>0.14131526104417672</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.239206827309237</c:v>
+                  <c:v>0.23920682730923695</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.294678714859438</c:v>
+                  <c:v>0.29467871485943775</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0893574297188755</c:v>
+                  <c:v>8.9357429718875503E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.191265060240964</c:v>
+                  <c:v>0.19126506024096385</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.133032128514056</c:v>
+                  <c:v>0.13303212851405621</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.227409638554217</c:v>
+                  <c:v>0.22740963855421686</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25828313253012</c:v>
+                  <c:v>0.25828313253012047</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.183232931726908</c:v>
+                  <c:v>0.18323293172690763</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.611696787148594</c:v>
+                  <c:v>0.61169678714859432</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.346385542168675</c:v>
+                  <c:v>0.34638554216867468</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.344126506024096</c:v>
+                  <c:v>0.34412650602409639</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.342118473895582</c:v>
+                  <c:v>0.34211847389558231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4861,11 +4941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="552836472"/>
-        <c:axId val="552833576"/>
+        <c:axId val="718501448"/>
+        <c:axId val="722619408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="552836472"/>
+        <c:axId val="718501448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,12 +4955,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552833576"/>
+        <c:crossAx val="722619408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552833576"/>
+        <c:axId val="722619408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4891,14 +4971,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552836472"/>
+        <c:crossAx val="718501448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4907,7 +4986,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4961,148 +5040,148 @@
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>41650.0</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41657.0</c:v>
+                  <c:v>41657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41664.0</c:v>
+                  <c:v>41664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41678.0</c:v>
+                  <c:v>41678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41685.0</c:v>
+                  <c:v>41685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41692.0</c:v>
+                  <c:v>41692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41706.0</c:v>
+                  <c:v>41706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41713.0</c:v>
+                  <c:v>41713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41720.0</c:v>
+                  <c:v>41720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41727.0</c:v>
+                  <c:v>41727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41734.0</c:v>
+                  <c:v>41734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41741.0</c:v>
+                  <c:v>41741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41748.0</c:v>
+                  <c:v>41748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41755.0</c:v>
+                  <c:v>41755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41762.0</c:v>
+                  <c:v>41762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41769.0</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41776.0</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41783.0</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41790.0</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41797.0</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41804.0</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41811.0</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41818.0</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41825.0</c:v>
+                  <c:v>41825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41832.0</c:v>
+                  <c:v>41832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41839.0</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41846.0</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41853.0</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41860.0</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41867.0</c:v>
+                  <c:v>41867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41874.0</c:v>
+                  <c:v>41874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41881.0</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41888.0</c:v>
+                  <c:v>41888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41895.0</c:v>
+                  <c:v>41895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41902.0</c:v>
+                  <c:v>41902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41909.0</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41916.0</c:v>
+                  <c:v>41916</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41923.0</c:v>
+                  <c:v>41923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41930.0</c:v>
+                  <c:v>41930</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41937.0</c:v>
+                  <c:v>41937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41951.0</c:v>
+                  <c:v>41951</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41972.0</c:v>
+                  <c:v>41972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41993.0</c:v>
+                  <c:v>41993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5114,145 +5193,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>119.0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>202.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>390.0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>563.0</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>953.0</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1174.0</c:v>
+                  <c:v>1174</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>356.0</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>762.0</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>530.0</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>906.0</c:v>
+                  <c:v>906</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1029.0</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>730.0</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2437.0</c:v>
+                  <c:v>2437</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1380.0</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1371.0</c:v>
+                  <c:v>1371</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1363.0</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1163.0</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1036.0</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3984.0</c:v>
+                  <c:v>3984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1679.0</c:v>
+                  <c:v>1679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5287,148 +5366,148 @@
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$49</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>41650.0</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41657.0</c:v>
+                  <c:v>41657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41664.0</c:v>
+                  <c:v>41664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41678.0</c:v>
+                  <c:v>41678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41685.0</c:v>
+                  <c:v>41685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41692.0</c:v>
+                  <c:v>41692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41706.0</c:v>
+                  <c:v>41706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41713.0</c:v>
+                  <c:v>41713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41720.0</c:v>
+                  <c:v>41720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41727.0</c:v>
+                  <c:v>41727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41734.0</c:v>
+                  <c:v>41734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41741.0</c:v>
+                  <c:v>41741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41748.0</c:v>
+                  <c:v>41748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41755.0</c:v>
+                  <c:v>41755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41762.0</c:v>
+                  <c:v>41762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41769.0</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41776.0</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41783.0</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41790.0</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41797.0</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41804.0</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41811.0</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41818.0</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41825.0</c:v>
+                  <c:v>41825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41832.0</c:v>
+                  <c:v>41832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41839.0</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41846.0</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41853.0</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41860.0</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41867.0</c:v>
+                  <c:v>41867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41874.0</c:v>
+                  <c:v>41874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41881.0</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41888.0</c:v>
+                  <c:v>41888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41895.0</c:v>
+                  <c:v>41895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41902.0</c:v>
+                  <c:v>41902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41909.0</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41916.0</c:v>
+                  <c:v>41916</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41923.0</c:v>
+                  <c:v>41923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41930.0</c:v>
+                  <c:v>41930</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41937.0</c:v>
+                  <c:v>41937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41951.0</c:v>
+                  <c:v>41951</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41972.0</c:v>
+                  <c:v>41972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41993.0</c:v>
+                  <c:v>41993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5440,145 +5519,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.7488</c:v>
+                  <c:v>12.748800000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.98028865979381</c:v>
+                  <c:v>45.980288659793814</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.82596288659794</c:v>
+                  <c:v>23.825962886597935</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.82596288659794</c:v>
+                  <c:v>23.825962886597935</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.82596288659794</c:v>
+                  <c:v>23.825962886597935</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.90312577319587</c:v>
+                  <c:v>34.903125773195875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>178.9062432989691</c:v>
+                  <c:v>178.90624329896909</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68.13461443298969</c:v>
+                  <c:v>68.134614432989693</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34.90312577319587</c:v>
+                  <c:v>34.903125773195875</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>79.21177731958764</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>134.5975917525773</c:v>
+                  <c:v>134.59759175257733</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90.28894020618556</c:v>
+                  <c:v>90.288940206185558</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>134.5975917525773</c:v>
+                  <c:v>134.59759175257733</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>533.375455670103</c:v>
+                  <c:v>533.37545567010307</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>544.4526185567011</c:v>
+                  <c:v>544.45261855670105</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>621.9927587628865</c:v>
+                  <c:v>621.99275876288652</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>555.529781443299</c:v>
+                  <c:v>555.52978144329904</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>444.7581525773195</c:v>
+                  <c:v>444.75815257731955</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>577.684107216495</c:v>
+                  <c:v>577.68410721649491</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>588.7612701030928</c:v>
+                  <c:v>588.76127010309278</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>921.076156701031</c:v>
+                  <c:v>921.07615670103098</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>965.3848082474225</c:v>
+                  <c:v>965.3848082474226</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1120.465088659794</c:v>
+                  <c:v>1120.4650886597935</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1253.391043298969</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2161.7184</c:v>
+                  <c:v>2161.7183999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1663.246070103093</c:v>
+                  <c:v>1663.2460701030927</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>854.6131793814433</c:v>
+                  <c:v>854.61317938144327</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>699.5328989690722</c:v>
+                  <c:v>699.53289896907222</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>544.4526185567011</c:v>
+                  <c:v>544.45261855670105</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>367.218012371134</c:v>
+                  <c:v>367.21801237113397</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>511.2211298969072</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>90.28894020618556</c:v>
+                  <c:v>90.288940206185558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5593,33 +5672,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552802408"/>
-        <c:axId val="552799320"/>
+        <c:axId val="722615880"/>
+        <c:axId val="722618624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="552802408"/>
+        <c:axId val="722615880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy\ h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552799320"/>
+        <c:crossAx val="722618624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="552799320"/>
+        <c:axId val="722618624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4000.0"/>
+          <c:max val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5628,14 +5706,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552802408"/>
+        <c:crossAx val="722615880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5644,7 +5721,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5671,10 +5748,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0540331873916279"/>
-          <c:y val="0.0601851851851852"/>
-          <c:w val="0.591699281727133"/>
-          <c:h val="0.87962962962963"/>
+          <c:x val="5.40331873916279E-2"/>
+          <c:y val="6.0185185185185203E-2"/>
+          <c:w val="0.59169928172713304"/>
+          <c:h val="0.87962962962962998"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5701,8 +5778,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.526786371029038"/>
-                  <c:y val="-0.0955056138815981"/>
+                  <c:x val="0.52678637102903803"/>
+                  <c:y val="-9.5505613881598103E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5715,136 +5792,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0154639175257732</c:v>
+                  <c:v>1.5463917525773196E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00515463917525773</c:v>
+                  <c:v>5.1546391752577319E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0103092783505155</c:v>
+                  <c:v>1.0309278350515464E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.077319587628866</c:v>
+                  <c:v>7.7319587628865982E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0257731958762887</c:v>
+                  <c:v>2.5773195876288658E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0103092783505155</c:v>
+                  <c:v>1.0309278350515464E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0309278350515464</c:v>
+                  <c:v>3.0927835051546393E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.056701030927835</c:v>
+                  <c:v>5.6701030927835051E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0360824742268041</c:v>
+                  <c:v>3.608247422680412E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.056701030927835</c:v>
+                  <c:v>5.6701030927835051E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.242268041237113</c:v>
+                  <c:v>0.2422680412371134</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.247422680412371</c:v>
+                  <c:v>0.24742268041237114</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.283505154639175</c:v>
+                  <c:v>0.28350515463917525</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.252577319587629</c:v>
+                  <c:v>0.25257731958762886</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.201030927835052</c:v>
+                  <c:v>0.20103092783505155</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.262886597938144</c:v>
+                  <c:v>0.26288659793814434</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.268041237113402</c:v>
+                  <c:v>0.26804123711340205</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.422680412371134</c:v>
+                  <c:v>0.42268041237113402</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.443298969072165</c:v>
+                  <c:v>0.44329896907216493</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.515463917525773</c:v>
+                  <c:v>0.51546391752577314</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.577319587628866</c:v>
+                  <c:v>0.57731958762886593</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.768041237113402</c:v>
+                  <c:v>0.76804123711340211</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.391752577319588</c:v>
+                  <c:v>0.39175257731958762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5856,136 +5933,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00231481481481481</c:v>
+                  <c:v>2.3148148148148147E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0509259259259259</c:v>
+                  <c:v>5.0925925925925923E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.00694444444444444</c:v>
+                  <c:v>-6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0648148148148148</c:v>
+                  <c:v>6.4814814814814811E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.136574074074074</c:v>
+                  <c:v>0.13657407407407407</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.173611111111111</c:v>
+                  <c:v>0.1736111111111111</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0763888888888889</c:v>
+                  <c:v>7.6388888888888895E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.395833333333333</c:v>
+                  <c:v>0.39583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.703703703703704</c:v>
+                  <c:v>0.70370370370370372</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.701388888888889</c:v>
+                  <c:v>0.70138888888888884</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.49537037037037</c:v>
+                  <c:v>0.49537037037037035</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.472222222222222</c:v>
+                  <c:v>0.47222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.520833333333333</c:v>
+                  <c:v>0.52083333333333337</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.849537037037037</c:v>
+                  <c:v>0.84953703703703709</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.31712962962963</c:v>
+                  <c:v>0.31712962962962965</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.381944444444444</c:v>
+                  <c:v>0.38194444444444442</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.381944444444444</c:v>
+                  <c:v>0.38194444444444442</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.280092592592593</c:v>
+                  <c:v>0.28009259259259262</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.886574074074074</c:v>
+                  <c:v>0.88657407407407407</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.395833333333333</c:v>
+                  <c:v>0.39583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.224537037037037</c:v>
+                  <c:v>0.22453703703703703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6000,11 +6077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="629478984"/>
-        <c:axId val="629634184"/>
+        <c:axId val="722619016"/>
+        <c:axId val="722617448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="629478984"/>
+        <c:axId val="722619016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6014,12 +6091,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="629634184"/>
+        <c:crossAx val="722617448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="629634184"/>
+        <c:axId val="722617448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6030,14 +6107,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="629478984"/>
+        <c:crossAx val="722619016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6046,7 +6122,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8781,7 +8857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8795,15 +8871,15 @@
       <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8856,7 +8932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>41643.791666666664</v>
       </c>
@@ -8909,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>41650.791666666664</v>
       </c>
@@ -8959,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>41657.791666666664</v>
       </c>
@@ -9009,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>41664.791666666664</v>
       </c>
@@ -9059,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>41671.791666666664</v>
       </c>
@@ -9109,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>41678.791666666664</v>
       </c>
@@ -9159,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>41685.791666666664</v>
       </c>
@@ -9209,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>41692.791666666664</v>
       </c>
@@ -9259,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>41699.791666666664</v>
       </c>
@@ -9306,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>41706.791666666664</v>
       </c>
@@ -9353,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>41713.833333333336</v>
       </c>
@@ -9400,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>41720.833333333336</v>
       </c>
@@ -9447,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>41727.833333333336</v>
       </c>
@@ -9494,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>41734.833333333336</v>
       </c>
@@ -9541,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>41741.833333333336</v>
       </c>
@@ -9588,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>41748.833333333336</v>
       </c>
@@ -9635,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>41755.833333333336</v>
       </c>
@@ -9682,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>41762.833333333336</v>
       </c>
@@ -9729,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>41769.833333333336</v>
       </c>
@@ -9776,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>41776.833333333336</v>
       </c>
@@ -9823,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>41783.833333333336</v>
       </c>
@@ -9876,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>41790.833333333336</v>
       </c>
@@ -9929,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>41797.833333333336</v>
       </c>
@@ -9979,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>41804.833333333336</v>
       </c>
@@ -10032,7 +10108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>41811.833333333336</v>
       </c>
@@ -10085,7 +10161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>41818.833333333336</v>
       </c>
@@ -10138,7 +10214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>41825.833333333336</v>
       </c>
@@ -10191,7 +10267,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>41832.833333333336</v>
       </c>
@@ -10244,7 +10320,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>41839.833333333336</v>
       </c>
@@ -10297,7 +10373,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>41846.833333333336</v>
       </c>
@@ -10350,7 +10426,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>41853.833333333336</v>
       </c>
@@ -10403,7 +10479,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>41860.833333333336</v>
       </c>
@@ -10459,7 +10535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>41867.833333333336</v>
       </c>
@@ -10515,7 +10591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>41874.833333333336</v>
       </c>
@@ -10571,7 +10647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>41881.833333333336</v>
       </c>
@@ -10627,7 +10703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>41888.833333333336</v>
       </c>
@@ -10683,7 +10759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>41895.833333333336</v>
       </c>
@@ -10739,7 +10815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>41902.833333333336</v>
       </c>
@@ -10795,7 +10871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>41909.833333333336</v>
       </c>
@@ -10851,7 +10927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>41916.833333333336</v>
       </c>
@@ -10907,7 +10983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41923.833333333336</v>
       </c>
@@ -10963,7 +11039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41930.833333333336</v>
       </c>
@@ -11019,7 +11095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>41937.833333333336</v>
       </c>
@@ -11075,7 +11151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>41944.833333333336</v>
       </c>
@@ -11131,7 +11207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>41951.791666666664</v>
       </c>
@@ -11187,7 +11263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>41958.791666666664</v>
       </c>
@@ -11243,7 +11319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>41965.791666666664</v>
       </c>
@@ -11299,7 +11375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>41972.791666666664</v>
       </c>
@@ -11355,7 +11431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>41979.791666666664</v>
       </c>
@@ -11411,7 +11487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>41986.791666666664</v>
       </c>
@@ -11467,7 +11543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>41993.791666666664</v>
       </c>
@@ -11523,7 +11599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>42000.791666666664</v>
       </c>
@@ -11579,7 +11655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>42007.791666666664</v>
       </c>
@@ -11635,7 +11711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>42014.791666666664</v>
       </c>
@@ -11709,19 +11785,19 @@
       <selection activeCell="B1" sqref="B1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.33203125" customWidth="1"/>
-    <col min="22" max="22" width="19.5" customWidth="1"/>
-    <col min="25" max="25" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.46484375" customWidth="1"/>
+    <col min="25" max="25" width="22.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -11795,7 +11871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>41644</v>
       </c>
@@ -11874,7 +11950,7 @@
         <v>0.31014803185774237</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+7</f>
         <v>41651</v>
@@ -11955,7 +12031,7 @@
         <v>0.46780929367553653</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A46" si="2">A3+7</f>
         <v>41658</v>
@@ -12029,7 +12105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="2"/>
         <v>41665</v>
@@ -12109,7 +12185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>41672</v>
@@ -12190,7 +12266,7 @@
         <v>0.81753842265454646</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="2"/>
         <v>41679</v>
@@ -12271,7 +12347,7 @@
         <v>0.80915661172114173</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>41686</v>
@@ -12345,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="2"/>
         <v>41693</v>
@@ -12422,7 +12498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>41700</v>
@@ -12503,7 +12579,7 @@
         <v>0.42125697303217463</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="2"/>
         <v>41707</v>
@@ -12584,7 +12660,7 @@
         <v>0.54273241805691108</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="2"/>
         <v>41714</v>
@@ -12658,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="2"/>
         <v>41721</v>
@@ -12732,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>41728</v>
@@ -12806,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>41735</v>
@@ -12880,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>41742</v>
@@ -12954,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>41749</v>
@@ -13028,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>41756</v>
@@ -13102,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>41763</v>
@@ -13176,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>41770</v>
@@ -13250,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>41777</v>
@@ -13324,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>41784</v>
@@ -13401,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>41791</v>
@@ -13478,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>41798</v>
@@ -13555,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>41805</v>
@@ -13632,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>41812</v>
@@ -13709,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>41819</v>
@@ -13786,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>41826</v>
@@ -13863,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>41833</v>
@@ -13940,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>41840</v>
@@ -14017,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>41847</v>
@@ -14094,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <f t="shared" si="2"/>
         <v>41854</v>
@@ -14171,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <f t="shared" si="2"/>
         <v>41861</v>
@@ -14248,7 +14324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <f t="shared" si="2"/>
         <v>41868</v>
@@ -14325,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <f t="shared" si="2"/>
         <v>41875</v>
@@ -14402,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <f t="shared" si="2"/>
         <v>41882</v>
@@ -14479,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <f t="shared" si="2"/>
         <v>41889</v>
@@ -14556,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <f t="shared" si="2"/>
         <v>41896</v>
@@ -14633,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <f t="shared" si="2"/>
         <v>41903</v>
@@ -14710,7 +14786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <f t="shared" si="2"/>
         <v>41910</v>
@@ -14787,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <f t="shared" si="2"/>
         <v>41917</v>
@@ -14864,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <f t="shared" si="2"/>
         <v>41924</v>
@@ -14941,7 +15017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <f t="shared" si="2"/>
         <v>41931</v>
@@ -15018,7 +15094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <f t="shared" si="2"/>
         <v>41938</v>
@@ -15095,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <f t="shared" si="2"/>
         <v>41945</v>
@@ -15172,7 +15248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <f t="shared" si="2"/>
         <v>41952</v>
@@ -15249,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>41973</v>
       </c>
@@ -15325,7 +15401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <f>A47+7</f>
         <v>41980</v>
@@ -15402,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>41994</v>
       </c>
@@ -15478,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>42008</v>
       </c>
@@ -15554,16 +15630,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>42009</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
@@ -15583,24 +15659,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="21.46484375" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" customWidth="1"/>
-    <col min="14" max="17" width="16.1640625" customWidth="1"/>
+    <col min="14" max="17" width="16.1328125" customWidth="1"/>
     <col min="18" max="18" width="12.6640625" customWidth="1"/>
-    <col min="19" max="20" width="16.5" customWidth="1"/>
+    <col min="19" max="20" width="16.46484375" customWidth="1"/>
     <col min="22" max="22" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="K1" t="s">
         <v>33</v>
       </c>
@@ -15623,7 +15699,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -15689,7 +15765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>41650</v>
       </c>
@@ -15756,7 +15832,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>41657</v>
       </c>
@@ -15829,7 +15905,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>41664</v>
       </c>
@@ -15901,7 +15977,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>41671</v>
       </c>
@@ -15974,7 +16050,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>41678</v>
       </c>
@@ -16043,7 +16119,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>41685</v>
       </c>
@@ -16112,7 +16188,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>41692</v>
       </c>
@@ -16181,7 +16257,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>41699</v>
       </c>
@@ -16250,7 +16326,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>41706</v>
       </c>
@@ -16319,7 +16395,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>41713</v>
       </c>
@@ -16388,7 +16464,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>41720</v>
       </c>
@@ -16461,7 +16537,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>41727</v>
       </c>
@@ -16530,7 +16606,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>41734</v>
       </c>
@@ -16599,7 +16675,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>41741</v>
       </c>
@@ -16668,7 +16744,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>41748</v>
       </c>
@@ -16737,7 +16813,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>41755</v>
       </c>
@@ -16806,7 +16882,7 @@
         <v>12.748800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>41762</v>
       </c>
@@ -16875,7 +16951,7 @@
         <v>45.980288659793814</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>41769</v>
       </c>
@@ -16944,7 +17020,7 @@
         <v>23.825962886597935</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>41776</v>
       </c>
@@ -17013,7 +17089,7 @@
         <v>23.825962886597935</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>41783</v>
       </c>
@@ -17082,7 +17158,7 @@
         <v>23.825962886597935</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>41790</v>
       </c>
@@ -17151,7 +17227,7 @@
         <v>34.903125773195875</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>41797</v>
       </c>
@@ -17220,7 +17296,7 @@
         <v>178.90624329896909</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>41804</v>
       </c>
@@ -17289,7 +17365,7 @@
         <v>68.134614432989693</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>41811</v>
       </c>
@@ -17358,7 +17434,7 @@
         <v>34.903125773195875</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>41818</v>
       </c>
@@ -17427,7 +17503,7 @@
         <v>79.21177731958764</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>41825</v>
       </c>
@@ -17499,7 +17575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>41832</v>
       </c>
@@ -17568,7 +17644,7 @@
         <v>90.288940206185558</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>41839</v>
       </c>
@@ -17637,7 +17713,7 @@
         <v>134.59759175257733</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>41846</v>
       </c>
@@ -17706,7 +17782,7 @@
         <v>533.37545567010307</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>41853</v>
       </c>
@@ -17775,7 +17851,7 @@
         <v>544.45261855670105</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>41860</v>
       </c>
@@ -17844,7 +17920,7 @@
         <v>621.99275876288652</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>41867</v>
       </c>
@@ -17913,7 +17989,7 @@
         <v>555.52978144329904</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>41874</v>
       </c>
@@ -17982,7 +18058,7 @@
         <v>444.75815257731955</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>41881</v>
       </c>
@@ -18051,7 +18127,7 @@
         <v>577.68410721649491</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>41888</v>
       </c>
@@ -18120,7 +18196,7 @@
         <v>588.76127010309278</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>41895</v>
       </c>
@@ -18189,7 +18265,7 @@
         <v>921.07615670103098</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>41902</v>
       </c>
@@ -18258,7 +18334,7 @@
         <v>965.3848082474226</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>41909</v>
       </c>
@@ -18327,7 +18403,7 @@
         <v>1120.4650886597935</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>41916</v>
       </c>
@@ -18396,7 +18472,7 @@
         <v>1253.391043298969</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41923</v>
       </c>
@@ -18465,7 +18541,7 @@
         <v>2161.7183999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41930</v>
       </c>
@@ -18534,7 +18610,7 @@
         <v>1663.2460701030927</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>41937</v>
       </c>
@@ -18603,7 +18679,7 @@
         <v>854.61317938144327</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>41944</v>
       </c>
@@ -18672,7 +18748,7 @@
         <v>699.53289896907222</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>41951</v>
       </c>
@@ -18741,7 +18817,7 @@
         <v>544.45261855670105</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>41972</v>
       </c>
@@ -18810,7 +18886,7 @@
         <v>367.21801237113397</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>41979</v>
       </c>
@@ -18879,7 +18955,7 @@
         <v>511.2211298969072</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>41993</v>
       </c>
@@ -18948,7 +19024,7 @@
         <v>90.288940206185558</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>42007</v>
       </c>
@@ -19017,7 +19093,7 @@
         <v>134.59759175257733</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>42008</v>
       </c>
@@ -19086,7 +19162,7 @@
         <v>311.8321979381443</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="N52">
         <v>6.1855670103092786E-2</v>
       </c>
@@ -19100,7 +19176,7 @@
         <v>3.608247422680412E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="O53">
         <v>6.1855670103092786E-2</v>
       </c>
@@ -19111,7 +19187,7 @@
         <v>5.6701030927835051E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="P54">
         <v>6.1855670103092786E-2</v>
       </c>
@@ -19119,7 +19195,7 @@
         <v>0.13917525773195877</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="Q55">
         <v>6.1855670103092786E-2</v>
       </c>
